--- a/LR02/doc/Grafiki.xlsx
+++ b/LR02/doc/Grafiki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CUDA\2\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CUDA_CMake\LR02\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F517D801-A86A-4B9A-AFE1-0397ED5F6332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE07DE-5D8D-4F76-A36C-40E44E9DC3E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="выборка от N" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>blockSize</t>
   </si>
@@ -71,6 +71,63 @@
   </si>
   <si>
     <t>СРЗ</t>
+  </si>
+  <si>
+    <t>single CPU</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>0.052256</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>0.098112</t>
+  </si>
+  <si>
+    <t>0.049248</t>
+  </si>
+  <si>
+    <t>0.066304</t>
+  </si>
+  <si>
+    <t>0.091968</t>
+  </si>
+  <si>
+    <t>0.064544</t>
+  </si>
+  <si>
+    <t>0.075776</t>
+  </si>
+  <si>
+    <t>0.065536</t>
+  </si>
+  <si>
+    <t>0.06656</t>
+  </si>
+  <si>
+    <t>0.065472</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.052512</t>
+  </si>
+  <si>
+    <t>0.089312</t>
+  </si>
+  <si>
+    <t>0.039776</t>
+  </si>
+  <si>
+    <t>0.118688</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0456</t>
   </si>
 </sst>
 </file>
@@ -163,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -177,6 +234,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1308,7 +1368,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4219,16 +4278,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>256</v>
       </c>
@@ -4250,8 +4311,23 @@
       <c r="G1">
         <v>16384</v>
       </c>
+      <c r="I1">
+        <v>10000000</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.55491199999999996</v>
       </c>
@@ -4273,8 +4349,20 @@
       <c r="G2">
         <v>0.75775999999999999</v>
       </c>
+      <c r="J2">
+        <v>120</v>
+      </c>
+      <c r="K2">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>80700</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.59289599999999998</v>
       </c>
@@ -4296,8 +4384,20 @@
       <c r="G3">
         <v>0.52140799999999998</v>
       </c>
+      <c r="J3">
+        <v>122</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3">
+        <v>126500</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.516096</v>
       </c>
@@ -4319,8 +4419,20 @@
       <c r="G4">
         <v>0.50585599999999997</v>
       </c>
+      <c r="J4">
+        <v>130</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4">
+        <v>85400</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.557056</v>
       </c>
@@ -4342,8 +4454,20 @@
       <c r="G5">
         <v>0.49356800000000001</v>
       </c>
+      <c r="J5">
+        <v>121</v>
+      </c>
+      <c r="K5">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>87100</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.0517099999999999</v>
       </c>
@@ -4365,8 +4489,20 @@
       <c r="G6">
         <v>0.55708800000000003</v>
       </c>
+      <c r="J6">
+        <v>119</v>
+      </c>
+      <c r="K6">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>127900</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.68726399999999999</v>
       </c>
@@ -4389,7 +4525,7 @@
         <v>0.48448000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.7244200000000001</v>
       </c>
@@ -4411,8 +4547,20 @@
       <c r="G8">
         <v>0.51814400000000005</v>
       </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>70000</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.3383700000000001</v>
       </c>
@@ -4434,8 +4582,17 @@
       <c r="G9">
         <v>0.51302400000000004</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>61000</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.53759999999999997</v>
       </c>
@@ -4457,8 +4614,17 @@
       <c r="G10">
         <v>0.50707199999999997</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>60200</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.57667199999999996</v>
       </c>
@@ -4480,8 +4646,17 @@
       <c r="G11">
         <v>0.55702399999999996</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11">
+        <v>61900</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.4102399999999999</v>
       </c>
@@ -4503,8 +4678,17 @@
       <c r="G12">
         <v>0.499776</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <v>59700</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.78726399999999996</v>
       </c>
@@ -4526,8 +4710,11 @@
       <c r="G13">
         <v>0.55500799999999995</v>
       </c>
+      <c r="I13">
+        <v>9999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.69120000000000004</v>
       </c>
@@ -4549,8 +4736,34 @@
       <c r="G14">
         <v>0.44646400000000003</v>
       </c>
+      <c r="J14">
+        <v>123</v>
+      </c>
+      <c r="K14">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14">
+        <v>77500</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>119</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15">
+        <v>152100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>AVERAGE(A2:A14)</f>
         <v>0.84813076923076924</v>
@@ -4578,6 +4791,46 @@
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0.53205169230769223</v>
+      </c>
+      <c r="J16">
+        <v>122</v>
+      </c>
+      <c r="K16">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <v>76700</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>121</v>
+      </c>
+      <c r="K17">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>105500</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>122</v>
+      </c>
+      <c r="K18">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18">
+        <v>71200</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4946,7 @@
         <v>0.51173120000000005</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:H2" si="0">AVERAGE(L2:L6)</f>
+        <f t="shared" ref="C2:G2" si="0">AVERAGE(L2:L6)</f>
         <v>0.41779199999999994</v>
       </c>
       <c r="D2" s="1">
@@ -5256,14 +5509,14 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="J19" s="4">
         <v>4</v>
       </c>
